--- a/books.xlsx
+++ b/books.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -31,16 +31,40 @@
     <t>Deepak</t>
   </si>
   <si>
-    <t>jaiswal</t>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>shikhar</t>
+  </si>
+  <si>
+    <t>barthwal</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>maya</t>
-  </si>
-  <si>
-    <t>nadi</t>
-  </si>
-  <si>
-    <t>nandan</t>
   </si>
 </sst>
 </file>
@@ -417,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -464,15 +488,100 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>

--- a/books.xlsx
+++ b/books.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,15 @@
     <t>Available</t>
   </si>
   <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>The book of sex</t>
+  </si>
+  <si>
     <t>Deepak</t>
   </si>
   <si>
@@ -46,25 +55,31 @@
     <t>java</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>chai</t>
-  </si>
-  <si>
-    <t>shikhar</t>
-  </si>
-  <si>
-    <t>barthwal</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>maya</t>
+    <t>Pushpanjali</t>
+  </si>
+  <si>
+    <t>Nema</t>
+  </si>
+  <si>
+    <t>sex title</t>
+  </si>
+  <si>
+    <t>harshit</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Choudhary</t>
+  </si>
+  <si>
+    <t>know me</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -497,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -536,52 +551,35 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
         <v>0</v>
       </c>
     </row>
